--- a/2023/05-bratrejov/05-bratrejov-VKCT2023.xlsx
+++ b/2023/05-bratrejov/05-bratrejov-VKCT2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Karviná</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolf Sebastian</t>
+    <t xml:space="preserve">Bolf Sebastián</t>
   </si>
   <si>
     <t xml:space="preserve">Kopečný Jakub</t>
@@ -886,7 +886,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2549,7 +2549,7 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6815,7 +6815,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7408,8 +7408,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7550,7 +7550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>46</v>
       </c>
